--- a/pred_ohlcv/54_21/2020-01-11 ORBS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 ORBS ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>-614983.2337303839</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-614385.1048303839</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>80250.0340824762</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>80327.0340824762</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-173717.1725175238</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-710306.2392175237</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-710226.5392175238</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-710226.5392175238</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-712465.9468175238</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-710874.6275175238</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-690874.6275175238</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-690953.3275175238</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-315527.9550175238</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-328963.0644175238</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-328963.0644175238</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-328963.0644175238</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-479534.0644175238</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-479534.0644175238</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-518283.7644175238</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-593982.6742175239</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-593982.6742175239</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-593982.6742175239</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-573903.6742175239</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-607186.4488175239</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-69079.7295175239</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-269079.7295175239</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-276236.0703175239</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-11 ORBS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 ORBS ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>-614983.2337303839</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-614385.1048303839</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>80250.0340824762</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>80327.0340824762</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-173717.1725175238</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-710226.5392175238</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-710226.5392175238</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-712465.9468175238</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-710874.6275175238</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-690874.6275175238</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-690953.3275175238</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-315527.9550175238</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-328963.0644175238</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-328963.0644175238</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-328963.0644175238</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-479534.0644175238</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-479534.0644175238</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-518283.7644175238</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-593982.6742175239</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-593982.6742175239</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-573903.6742175239</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-607186.4488175239</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-69173.7295175239</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-69079.7295175239</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-269079.7295175239</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-276236.0703175239</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
